--- a/09-septiembre/6-portal-cliente/orainde/ORAINDE.xlsx
+++ b/09-septiembre/6-portal-cliente/orainde/ORAINDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\orainde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\orainde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCF2ECE-CB67-47BD-BE00-C2D4EF2BF6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F613F54-C211-495B-84C0-5CEE6CA83C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>EMPLEADO</t>
   </si>
@@ -75,6 +75,30 @@
   </si>
   <si>
     <t>AGOSTO 2025</t>
+  </si>
+  <si>
+    <t>sueldo basico</t>
+  </si>
+  <si>
+    <t>antigüedad</t>
+  </si>
+  <si>
+    <t>presentismo</t>
+  </si>
+  <si>
+    <t>tot rem</t>
+  </si>
+  <si>
+    <t>no rem</t>
+  </si>
+  <si>
+    <t>ant nr</t>
+  </si>
+  <si>
+    <t>pre nr</t>
+  </si>
+  <si>
+    <t>tot nr</t>
   </si>
 </sst>
 </file>
@@ -108,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -178,6 +208,14 @@
     <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -196,7 +234,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -494,27 +532,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -527,7 +565,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -540,7 +578,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -551,7 +589,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -580,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -613,7 +651,7 @@
         <v>1216043.0399999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -646,7 +684,7 @@
         <v>1204001.82</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <f>SUM(B5:B6)</f>
@@ -681,14 +719,14 @@
         <v>2420044.86</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B10" s="4"/>
       <c r="E10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="17"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
@@ -717,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
@@ -763,7 +801,7 @@
         <v>721.63000000000466</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -809,7 +847,7 @@
         <v>714.81999999999971</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A14" s="14"/>
       <c r="B14" s="15">
         <f>SUM(B12:B13)</f>
@@ -844,38 +882,428 @@
         <v>3580507.8200000003</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+    <row r="17" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A17" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21">
+        <v>537653.55000000005</v>
+      </c>
+      <c r="C18" s="21">
+        <v>5376.5</v>
+      </c>
+      <c r="D18" s="21">
+        <v>45234.400000000001</v>
+      </c>
+      <c r="E18" s="21">
+        <f>+B18+C18+D18</f>
+        <v>588264.45000000007</v>
+      </c>
+      <c r="F18" s="21">
+        <v>20000</v>
+      </c>
+      <c r="G18" s="22">
+        <v>205</v>
+      </c>
+      <c r="H18" s="21">
+        <v>1682.66</v>
+      </c>
+      <c r="I18" s="21">
+        <f>+F18+G18+H18</f>
+        <v>21887.66</v>
+      </c>
+      <c r="J18" s="23">
+        <f>+E18+I18</f>
+        <v>610152.1100000001</v>
+      </c>
+      <c r="K18" s="16">
+        <f>+J18/25</f>
+        <v>24406.084400000003</v>
+      </c>
+      <c r="L18" s="16">
+        <f>+J18/30</f>
+        <v>20338.403666666669</v>
+      </c>
+      <c r="M18" s="16">
+        <f>+K18-L18</f>
+        <v>4067.6807333333345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21">
+        <v>537653.55000000005</v>
+      </c>
+      <c r="C19" s="21">
+        <v>0</v>
+      </c>
+      <c r="D19" s="21">
+        <v>44786.5</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" ref="E19:E24" si="0">+B19+C19+D19</f>
+        <v>582440.05000000005</v>
+      </c>
+      <c r="F19" s="21">
+        <v>20000</v>
+      </c>
+      <c r="G19" s="22">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
+        <v>1666</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" ref="I19:I25" si="1">+F19+G19+H19</f>
+        <v>21666</v>
+      </c>
+      <c r="J19" s="23">
+        <f t="shared" ref="J19:J25" si="2">+E19+I19</f>
+        <v>604106.05000000005</v>
+      </c>
+      <c r="K19" s="16">
+        <f t="shared" ref="K19:K25" si="3">+J19/25</f>
+        <v>24164.242000000002</v>
+      </c>
+      <c r="L19" s="16">
+        <f t="shared" ref="L19:L25" si="4">+J19/30</f>
+        <v>20136.868333333336</v>
+      </c>
+      <c r="M19" s="16">
+        <f t="shared" ref="M19:M25" si="5">+K19-L19</f>
+        <v>4027.3736666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21">
+        <v>0</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+      <c r="G20" s="22">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1666</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="1"/>
+        <v>1666</v>
+      </c>
+      <c r="J20" s="23">
+        <f t="shared" si="2"/>
+        <v>1666</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="3"/>
+        <v>66.64</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="4"/>
+        <v>55.533333333333331</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="5"/>
+        <v>11.106666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
+        <v>3332</v>
+      </c>
+      <c r="I21" s="21">
+        <f t="shared" si="1"/>
+        <v>3332</v>
+      </c>
+      <c r="J21" s="23">
+        <f t="shared" si="2"/>
+        <v>3332</v>
+      </c>
+      <c r="K21" s="16">
+        <f t="shared" si="3"/>
+        <v>133.28</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" si="4"/>
+        <v>111.06666666666666</v>
+      </c>
+      <c r="M21" s="16">
+        <f t="shared" si="5"/>
+        <v>22.213333333333338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21">
+        <v>0</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
+        <v>1666</v>
+      </c>
+      <c r="I22" s="21">
+        <f t="shared" si="1"/>
+        <v>1666</v>
+      </c>
+      <c r="J22" s="23">
+        <f t="shared" si="2"/>
+        <v>1666</v>
+      </c>
+      <c r="K22" s="16">
+        <f t="shared" si="3"/>
+        <v>66.64</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="4"/>
+        <v>55.533333333333331</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="5"/>
+        <v>11.106666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21">
+        <v>0</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21">
+        <v>1666</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" si="1"/>
+        <v>1666</v>
+      </c>
+      <c r="J23" s="23">
+        <f t="shared" si="2"/>
+        <v>1666</v>
+      </c>
+      <c r="K23" s="16">
+        <f t="shared" si="3"/>
+        <v>66.64</v>
+      </c>
+      <c r="L23" s="16">
+        <f t="shared" si="4"/>
+        <v>55.533333333333331</v>
+      </c>
+      <c r="M23" s="16">
+        <f t="shared" si="5"/>
+        <v>11.106666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21">
+        <v>0</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21">
+        <v>0</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0</v>
+      </c>
+      <c r="G24" s="22">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21">
+        <v>1666</v>
+      </c>
+      <c r="I24" s="21">
+        <f t="shared" si="1"/>
+        <v>1666</v>
+      </c>
+      <c r="J24" s="23">
+        <f t="shared" si="2"/>
+        <v>1666</v>
+      </c>
+      <c r="K24" s="16">
+        <f t="shared" si="3"/>
+        <v>66.64</v>
+      </c>
+      <c r="L24" s="16">
+        <f t="shared" si="4"/>
+        <v>55.533333333333331</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="5"/>
+        <v>11.106666666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21">
+        <v>0</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <f>+B25+C25+D25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="22">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21">
+        <v>1666</v>
+      </c>
+      <c r="I25" s="21">
+        <f t="shared" si="1"/>
+        <v>1666</v>
+      </c>
+      <c r="J25" s="23">
+        <f t="shared" si="2"/>
+        <v>1666</v>
+      </c>
+      <c r="K25" s="16">
+        <f t="shared" si="3"/>
+        <v>66.64</v>
+      </c>
+      <c r="L25" s="16">
+        <f t="shared" si="4"/>
+        <v>55.533333333333331</v>
+      </c>
+      <c r="M25" s="16">
+        <f t="shared" si="5"/>
+        <v>11.106666666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A26" s="20"/>
+      <c r="B26" s="22">
+        <f>SUM(B18:B25)</f>
+        <v>1075307.1000000001</v>
+      </c>
+      <c r="C26" s="22">
+        <f t="shared" ref="C26:F26" si="6">SUM(C18:C25)</f>
+        <v>5376.5</v>
+      </c>
+      <c r="D26" s="22">
+        <f t="shared" si="6"/>
+        <v>90020.9</v>
+      </c>
+      <c r="E26" s="22">
+        <f t="shared" si="6"/>
+        <v>1170704.5</v>
+      </c>
+      <c r="F26" s="22">
+        <f t="shared" si="6"/>
+        <v>40000</v>
+      </c>
+      <c r="G26" s="22">
+        <f>SUM(G18:G25)</f>
+        <v>205</v>
+      </c>
+      <c r="H26" s="22">
+        <f>SUM(H18:H25)</f>
+        <v>15010.66</v>
+      </c>
+      <c r="I26" s="22">
+        <f>SUM(I18:I25)</f>
+        <v>55215.66</v>
+      </c>
+      <c r="J26" s="23">
+        <f>+E26+I26</f>
+        <v>1225920.1599999999</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I7">

--- a/09-septiembre/6-portal-cliente/orainde/ORAINDE.xlsx
+++ b/09-septiembre/6-portal-cliente/orainde/ORAINDE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\orainde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\orainde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F613F54-C211-495B-84C0-5CEE6CA83C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0CAD0D-DD9F-48B3-9BD3-90D24843D19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -532,27 +532,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -565,7 +565,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -578,7 +578,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -589,7 +589,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -618,12 +618,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="8">
-        <v>586138.19999999995</v>
+        <v>592332.13</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="F5" s="8">
         <f>+B5+C5</f>
-        <v>586138.19999999995</v>
+        <v>592332.13</v>
       </c>
       <c r="G5" s="8">
         <f>+D5+E5</f>
@@ -644,19 +644,19 @@
       </c>
       <c r="H5" s="8">
         <f>+B5+C5+D5+E5</f>
-        <v>608021.5199999999</v>
+        <v>614215.44999999995</v>
       </c>
       <c r="I5" s="8">
         <f>+H5*2</f>
-        <v>1216043.0399999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+        <v>1228430.8999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="8">
-        <v>580334.91</v>
+        <v>586467.42000000004</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="F6" s="8">
         <f>+B6+C6</f>
-        <v>580334.91</v>
+        <v>586467.42000000004</v>
       </c>
       <c r="G6" s="8">
         <f>+D6+E6</f>
@@ -677,18 +677,18 @@
       </c>
       <c r="H6" s="8">
         <f>+B6+C6+D6+E6</f>
-        <v>602000.91</v>
+        <v>608133.42000000004</v>
       </c>
       <c r="I6" s="8">
         <f>+H6*2</f>
-        <v>1204001.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+        <v>1216266.8400000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <f>SUM(B5:B6)</f>
-        <v>1166473.1099999999</v>
+        <v>1178799.55</v>
       </c>
       <c r="C7" s="10">
         <f>SUM(C5:C6)</f>
@@ -704,7 +704,7 @@
       </c>
       <c r="F7" s="10">
         <f>SUM(F5:F6)</f>
-        <v>1166473.1099999999</v>
+        <v>1178799.55</v>
       </c>
       <c r="G7" s="8">
         <f>+D7+E7</f>
@@ -712,21 +712,21 @@
       </c>
       <c r="H7" s="10">
         <f>SUM(H5:H6)</f>
-        <v>1210022.43</v>
+        <v>1222348.8700000001</v>
       </c>
       <c r="I7" s="10">
         <f>SUM(I5:I6)</f>
-        <v>2420044.86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+        <v>2444697.7400000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B10" s="4"/>
       <c r="E10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="17"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
@@ -801,7 +801,7 @@
         <v>721.63000000000466</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -847,7 +847,7 @@
         <v>714.81999999999971</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A14" s="14"/>
       <c r="B14" s="15">
         <f>SUM(B12:B13)</f>
@@ -882,13 +882,13 @@
         <v>3580507.8200000003</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A17" s="18" t="s">
         <v>0</v>
       </c>
@@ -918,7 +918,7 @@
       </c>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A18" s="20"/>
       <c r="B18" s="21">
         <v>537653.55000000005</v>
@@ -963,7 +963,7 @@
         <v>4067.6807333333345</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A19" s="20"/>
       <c r="B19" s="21">
         <v>537653.55000000005</v>
@@ -1008,7 +1008,7 @@
         <v>4027.3736666666664</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A20" s="20"/>
       <c r="B20" s="21">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A21" s="20"/>
       <c r="B21" s="21">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>22.213333333333338</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A22" s="20"/>
       <c r="B22" s="21">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A23" s="20"/>
       <c r="B23" s="21">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
       <c r="B24" s="21">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A25" s="20"/>
       <c r="B25" s="21">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A26" s="20"/>
       <c r="B26" s="22">
         <f>SUM(B18:B25)</f>
